--- a/数据整理/stocks/A股/上证主板/600848-上海临港.xlsx
+++ b/数据整理/stocks/A股/上证主板/600848-上海临港.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161721</t>
+          <t>510810</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商沪深300地产等权重指数</t>
+          <t>汇添富中证上海国企ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>101.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0053</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>510810</t>
+          <t>161721</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证上海国企ETF</t>
+          <t>招商沪深300地产等权重指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>97.87</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2800</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.59</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.02</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4379</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.99</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.31</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600848-上海临港.xlsx
+++ b/数据整理/stocks/A股/上证主板/600848-上海临港.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3837</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4065</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600848-上海临港.xlsx
+++ b/数据整理/stocks/A股/上证主板/600848-上海临港.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1134</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3256</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600848-上海临港.xlsx
+++ b/数据整理/stocks/A股/上证主板/600848-上海临港.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600848-上海临港.xlsx
+++ b/数据整理/stocks/A股/上证主板/600848-上海临港.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.16</v>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7869</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.58</v>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7074</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.72</v>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9005</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1327,13 +1414,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>4.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600848-上海临港.xlsx
+++ b/数据整理/stocks/A股/上证主板/600848-上海临港.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1609,7 +1610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,17 +1621,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1640,14 +1661,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5798</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.22</v>
       </c>
     </row>
     <row r="3">
@@ -1656,14 +1699,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.16</v>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0229</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1672,14 +1737,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.58</v>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4982</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1688,14 +1775,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.72</v>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1704,13 +1813,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>4.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600848-上海临港.xlsx
+++ b/数据整理/stocks/A股/上证主板/600848-上海临港.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1970,7 +1971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,17 +1982,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2001,14 +2022,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6596</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.57</v>
       </c>
     </row>
     <row r="3">
@@ -2017,14 +2060,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.22</v>
       </c>
     </row>
     <row r="4">
@@ -2033,14 +2098,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.16</v>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2049,14 +2136,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.58</v>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2065,14 +2174,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.72</v>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2081,13 +2212,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>015042</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>4.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600848-上海临港.xlsx
+++ b/数据整理/stocks/A股/上证主板/600848-上海临港.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>4.41</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>4.57</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>7.22</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>4.16</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>4.58</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>3.72</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>4.29</v>
       </c>
     </row>
@@ -600,6 +617,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2617</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7084</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159768</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证内地地产主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159707</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝中证800地产ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015042</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015674</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -876,366 +1253,6 @@
       </c>
       <c r="H7" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>510810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证上海国企ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>68.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5798</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161721</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商沪深300地产等权重指数</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0229</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512200</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中证全指房地产ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>28.63</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.85</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4982</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160218</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰国证房地产行业指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1219</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002585</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信兴利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>61.22</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1165</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003831</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信鑫瑞回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>70.33</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1111</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160628</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华中证800地产指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0831</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>515060</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏中证全指房地产ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0408</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1310,26 +1327,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.12</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.76</t>
+          <t>99.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7869</t>
+          <t>2.5798</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1338,32 +1355,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002585</t>
+          <t>161721</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信兴利灵活配置混合</t>
+          <t>招商沪深300地产等权重指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>49.86</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>67.50</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>10.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.7074</t>
+          <t>1.0229</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1376,36 +1393,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161721</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商沪深300地产等权重指数</t>
+          <t>南方中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>28.63</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>99.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11.65</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9005</t>
+          <t>0.4982</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1414,36 +1431,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>160218</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方中证全指房地产ETF</t>
+          <t>国泰国证房地产行业指数</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.55</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.89</t>
+          <t>95.04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4224</t>
+          <t>0.1219</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1452,36 +1469,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160218</t>
+          <t>002585</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰国证房地产行业指数</t>
+          <t>建信兴利灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>61.22</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1505</t>
+          <t>0.1165</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1500,26 +1517,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>75.19</t>
+          <t>70.33</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1186</t>
+          <t>0.1111</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1538,22 +1555,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1030</t>
+          <t>0.0831</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1576,26 +1593,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>95.63</t>
+          <t>98.82</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0332</t>
+          <t>0.0408</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1604,6 +1621,366 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7869</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7074</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9005</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1849,7 +2226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2133,7 +2510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2265,7 +2642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600848-上海临港.xlsx
+++ b/数据整理/stocks/A股/上证主板/600848-上海临港.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>3.29</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>4.41</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.57</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>7.22</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>4.16</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>4.58</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>3.72</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>4.29</v>
       </c>
     </row>
@@ -616,7 +633,613 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0053</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2800</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2919</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6072</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159707</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝中证800地产ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159768</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中证内地地产主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>53.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015042</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015674</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>53.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -976,7 +1599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1253,366 +1876,6 @@
       </c>
       <c r="H7" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>510810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证上海国企ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>68.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5798</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161721</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商沪深300地产等权重指数</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0229</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512200</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中证全指房地产ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>28.63</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.85</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4982</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160218</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰国证房地产行业指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1219</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002585</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信兴利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>61.22</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1165</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003831</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信鑫瑞回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>70.33</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1111</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160628</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华中证800地产指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0831</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>515060</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏中证全指房地产ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0408</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1687,26 +1950,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.12</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.76</t>
+          <t>99.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7869</t>
+          <t>2.5798</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1715,32 +1978,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002585</t>
+          <t>161721</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信兴利灵活配置混合</t>
+          <t>招商沪深300地产等权重指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>49.86</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>67.50</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>10.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.7074</t>
+          <t>1.0229</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1753,36 +2016,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161721</t>
+          <t>512200</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商沪深300地产等权重指数</t>
+          <t>南方中证全指房地产ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>28.63</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>99.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11.65</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9005</t>
+          <t>0.4982</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1791,36 +2054,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>512200</t>
+          <t>160218</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方中证全指房地产ETF</t>
+          <t>国泰国证房地产行业指数</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.55</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>99.89</t>
+          <t>95.04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4224</t>
+          <t>0.1219</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1829,36 +2092,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160218</t>
+          <t>002585</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰国证房地产行业指数</t>
+          <t>建信兴利灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>61.22</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1505</t>
+          <t>0.1165</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1877,26 +2140,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>75.19</t>
+          <t>70.33</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1186</t>
+          <t>0.1111</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1915,22 +2178,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1030</t>
+          <t>0.0831</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1953,26 +2216,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>95.63</t>
+          <t>98.82</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0332</t>
+          <t>0.0408</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1981,6 +2244,366 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7869</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7074</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9005</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2226,7 +2849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2510,7 +3133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2640,136 +3263,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>510810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证上海国企ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>101.40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.0053</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161721</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商沪深300地产等权重指数</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2800</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>